--- a/hydromt_fiat/data/global_configuration.xlsx
+++ b/hydromt_fiat/data/global_configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIAT Accelerator\Software\Global Configuration Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydroMT\hydromt_fiat\hydromt_fiat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDF127-B567-4F5F-BB1E-6CD2F325A766}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A39E9D8-4B81-4B52-94F8-567104C42F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF545D70-B0C4-4D67-87E1-C27B8774E285}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10818" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10818" uniqueCount="1024">
   <si>
     <t>Country_Name</t>
   </si>
@@ -3110,6 +3110,12 @@
   </si>
   <si>
     <t>ER001</t>
+  </si>
+  <si>
+    <t>Damage_Function_ID_Erosion</t>
+  </si>
+  <si>
+    <t>Max_Damage_Erosion</t>
   </si>
 </sst>
 </file>
@@ -3575,8 +3581,8 @@
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3606,10 +3612,10 @@
         <v>1016</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1009</v>
